--- a/crowd_certain/outputs/final_figures/figure_metrics_all_datasets_workers/figure_metrics_all_datasets_workers.xlsx
+++ b/crowd_certain/outputs/final_figures/figure_metrics_all_datasets_workers/figure_metrics_all_datasets_workers.xlsx
@@ -939,58 +939,58 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>0.9227960354720919</v>
+        <v>0.8930620761606677</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9208026930744845</v>
+        <v>0.8903748733535967</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9136305381192198</v>
+        <v>0.8787818355561096</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9238393322900365</v>
+        <v>0.9024517475221701</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9216295715266204</v>
+        <v>0.899803902343367</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.9146507539468326</v>
+        <v>0.8887020602657287</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.9347939488784559</v>
+        <v>0.8215962441314554</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.9333235284505017</v>
+        <v>0.8199169853253586</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.9291800889325331</v>
+        <v>0.8122946454102556</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.9805128205128204</v>
+        <v>0.9823589743589743</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.9797527706734868</v>
+        <v>0.9817326177466706</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9792250639268837</v>
+        <v>0.9813097417884578</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.9792820512820514</v>
+        <v>0.9876923076923076</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.9784739982949701</v>
+        <v>0.9872122762148338</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.9778958660747762</v>
+        <v>0.9870463488522643</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.9835897435897435</v>
+        <v>0.9864615384615384</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.9829497016197783</v>
+        <v>0.9859335038363172</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.9826250628123513</v>
+        <v>0.9857251213592234</v>
       </c>
     </row>
     <row r="6">
@@ -1018,58 +1018,58 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7044138314213811</v>
+        <v>0.721792986240481</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6994830980073047</v>
+        <v>0.7143150743573924</v>
       </c>
       <c r="W6" t="n">
-        <v>0.7892540427751696</v>
+        <v>0.8257694314032342</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7894401411903127</v>
+        <v>0.8255842076020524</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7857100078844971</v>
+        <v>0.8208219614446842</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7663015127803861</v>
+        <v>0.7563901930099113</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7667467398764586</v>
+        <v>0.7566248324999183</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7647431142758245</v>
+        <v>0.751828950099997</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.7098478619876442</v>
+        <v>0.7291417005194981</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7005617357948296</v>
+        <v>0.7205033301691434</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7893333333333333</v>
+        <v>0.8562051282051283</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7894138985213974</v>
+        <v>0.8563183693199803</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.7832397149236359</v>
+        <v>0.8521931510878963</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.7737435897435897</v>
+        <v>0.8420512820512821</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.7738175779879232</v>
+        <v>0.8418438188623224</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.7671473882642635</v>
+        <v>0.8363449911977719</v>
       </c>
     </row>
     <row r="7">
@@ -1097,58 +1097,58 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7044138314213811</v>
+        <v>0.721792986240481</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6994830980073047</v>
+        <v>0.7143150743573924</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7073552425665102</v>
+        <v>0.7850808555033907</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7027028793672582</v>
+        <v>0.7812890152629343</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6422920273667766</v>
+        <v>0.7430304879838454</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7663015127803861</v>
+        <v>0.7563901930099113</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7667467398764586</v>
+        <v>0.7566248324999183</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.7647431142758245</v>
+        <v>0.751828950099997</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.7098478619876442</v>
+        <v>0.7291417005194981</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7005617357948296</v>
+        <v>0.7205033301691434</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7189743589743589</v>
+        <v>0.774974358974359</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.7130566755558791</v>
+        <v>0.7692667866053018</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6526920475614736</v>
+        <v>0.7235234483139189</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.7737435897435897</v>
+        <v>0.8420512820512821</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.7738175779879232</v>
+        <v>0.8418438188623224</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.7671473882642635</v>
+        <v>0.8363449911977719</v>
       </c>
     </row>
     <row r="8">
@@ -1176,58 +1176,58 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>0.7715179968701095</v>
+        <v>0.782472613458529</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7712226688891067</v>
+        <v>0.782357747491584</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7632864584540057</v>
+        <v>0.776693869660099</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7897756911841419</v>
+        <v>0.754303599374022</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7897293852338464</v>
+        <v>0.7544432460698761</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7842837521478966</v>
+        <v>0.7547502080320249</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.8184663536776213</v>
+        <v>0.8591549295774649</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.8183988626335914</v>
+        <v>0.8590923946792168</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.8124152110641402</v>
+        <v>0.854406563699334</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.7677948717948718</v>
+        <v>0.762051282051282</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.7678219103413194</v>
+        <v>0.7622244369406951</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.7608782357154151</v>
+        <v>0.7558402267724226</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.7854358974358974</v>
+        <v>0.8562051282051283</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.7855495181723212</v>
+        <v>0.8562721029409236</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.7794226376615933</v>
+        <v>0.8519164654251226</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.8283076923076923</v>
+        <v>0.898051282051282</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.828427833044611</v>
+        <v>0.8979151307745751</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.8233044068378037</v>
+        <v>0.8942025589940537</v>
       </c>
     </row>
     <row r="9">
@@ -1255,58 +1255,58 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7044138314213811</v>
+        <v>0.721792986240481</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6994830980073047</v>
+        <v>0.7143150743573924</v>
       </c>
       <c r="W9" t="n">
-        <v>0.7897756911841419</v>
+        <v>0.8137715179968702</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7899156780076476</v>
+        <v>0.814056933686309</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7858596837588107</v>
+        <v>0.8132961293475227</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.7876890975482524</v>
+        <v>0.809076682316119</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7882929698990098</v>
+        <v>0.8094045167826911</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.7878657493057641</v>
+        <v>0.8055132291878612</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.7098478619876442</v>
+        <v>0.7291417005194981</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.7005617357948296</v>
+        <v>0.7205033301691434</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.7854358974358974</v>
+        <v>0.8537435897435897</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.7855495181723212</v>
+        <v>0.8537916688156515</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.7794226376615933</v>
+        <v>0.8492678548718652</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.8188717948717948</v>
+        <v>0.8953846153846153</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.8189786203820845</v>
+        <v>0.8952215679195502</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.8141492342142856</v>
+        <v>0.8915384844726927</v>
       </c>
     </row>
     <row r="10">
@@ -1334,58 +1334,58 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>0.784037558685446</v>
+        <v>0.8085550339071466</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7838464555348564</v>
+        <v>0.8084321992352191</v>
       </c>
       <c r="V10" t="n">
-        <v>0.777508664968472</v>
+        <v>0.8034336696910941</v>
       </c>
       <c r="W10" t="n">
-        <v>0.8064684402712571</v>
+        <v>0.7762128325508607</v>
       </c>
       <c r="X10" t="n">
-        <v>0.8065611007615124</v>
+        <v>0.7762787201359611</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.8026136025353332</v>
+        <v>0.7756475782179481</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.8080333854981743</v>
+        <v>0.9019300991131978</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.8079877112135176</v>
+        <v>0.9019054155636174</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.8022215776857496</v>
+        <v>0.8980955796995668</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7610256410256411</v>
+        <v>0.7965128205128206</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.760572752490547</v>
+        <v>0.7965186951566433</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.7503374867858624</v>
+        <v>0.7898537585563353</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.7991794871794872</v>
+        <v>0.867897435897436</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.7992431022643727</v>
+        <v>0.8680503095043783</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.7938537949387299</v>
+        <v>0.8642577468847441</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.8434871794871794</v>
+        <v>0.8822564102564102</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.8433665642232961</v>
+        <v>0.8820748372586437</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.8382099433276053</v>
+        <v>0.8776039682609005</v>
       </c>
     </row>
     <row r="11">
@@ -1413,58 +1413,58 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7044138314213811</v>
+        <v>0.721792986240481</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6994830980073047</v>
+        <v>0.7143150743573924</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7897756911841419</v>
+        <v>0.8221178925404278</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7899156780076476</v>
+        <v>0.8218828643331045</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7858596837588107</v>
+        <v>0.8163553696126225</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.7663015127803861</v>
+        <v>0.7563901930099113</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7667467398764586</v>
+        <v>0.7566248324999183</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.7647431142758245</v>
+        <v>0.751828950099997</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.7098478619876442</v>
+        <v>0.7291417005194981</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.7005617357948296</v>
+        <v>0.7205033301691434</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.7854358974358974</v>
+        <v>0.8537435897435897</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.7855495181723212</v>
+        <v>0.8537916688156515</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.7794226376615933</v>
+        <v>0.8492678548718652</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.7737435897435897</v>
+        <v>0.8420512820512821</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.7738175779879232</v>
+        <v>0.8418438188623224</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.7671473882642635</v>
+        <v>0.8363449911977719</v>
       </c>
     </row>
     <row r="12">
@@ -1492,58 +1492,58 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7044138314213811</v>
+        <v>0.721792986240481</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6994830980073047</v>
+        <v>0.7143150743573924</v>
       </c>
       <c r="W12" t="n">
-        <v>0.7897756911841419</v>
+        <v>0.812206572769953</v>
       </c>
       <c r="X12" t="n">
-        <v>0.7899156780076476</v>
+        <v>0.8123819328692354</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.7858596837588107</v>
+        <v>0.8115691824592854</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.7991653625456442</v>
+        <v>0.8022952529994783</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.7994068045886852</v>
+        <v>0.8022600254926954</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.7956871714682244</v>
+        <v>0.7963118139697082</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.7098478619876442</v>
+        <v>0.7291417005194981</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.7005617357948296</v>
+        <v>0.7205033301691434</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.7854358974358974</v>
+        <v>0.8537435897435897</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.7855495181723212</v>
+        <v>0.8537916688156515</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.7794226376615933</v>
+        <v>0.8492678548718652</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.8188717948717948</v>
+        <v>0.8791794871794871</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.8189786203820845</v>
+        <v>0.8790938160812832</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.8141492342142856</v>
+        <v>0.8752857312815273</v>
       </c>
     </row>
     <row r="13">
@@ -1571,58 +1571,58 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7044138314213811</v>
+        <v>0.721792986240481</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6994830980073047</v>
+        <v>0.7143150743573924</v>
       </c>
       <c r="W13" t="n">
-        <v>0.7897756911841419</v>
+        <v>0.8221178925404278</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7899156780076476</v>
+        <v>0.8218828643331045</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7858596837588107</v>
+        <v>0.8163553696126225</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.7663015127803861</v>
+        <v>0.7563901930099113</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.7667467398764586</v>
+        <v>0.7566248324999183</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.7647431142758245</v>
+        <v>0.751828950099997</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.7098478619876442</v>
+        <v>0.7291417005194981</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.7005617357948296</v>
+        <v>0.7205033301691434</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.7854358974358974</v>
+        <v>0.8537435897435897</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.7855495181723212</v>
+        <v>0.8537916688156515</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.7794226376615933</v>
+        <v>0.8492678548718652</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.7737435897435897</v>
+        <v>0.8420512820512821</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.7738175779879232</v>
+        <v>0.8418438188623224</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.7671473882642635</v>
+        <v>0.8363449911977719</v>
       </c>
     </row>
     <row r="14">
@@ -1650,58 +1650,58 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="U14" t="n">
-        <v>0.7044138314213811</v>
+        <v>0.721792986240481</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6994830980073047</v>
+        <v>0.7143150743573924</v>
       </c>
       <c r="W14" t="n">
-        <v>0.7073552425665102</v>
+        <v>0.7850808555033907</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7027028793672582</v>
+        <v>0.7812890152629343</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6422920273667766</v>
+        <v>0.7430304879838454</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.7663015127803861</v>
+        <v>0.7563901930099113</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.7667467398764586</v>
+        <v>0.7566248324999183</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.7647431142758245</v>
+        <v>0.751828950099997</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.7098478619876442</v>
+        <v>0.7291417005194981</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.7005617357948296</v>
+        <v>0.7205033301691434</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.7189743589743589</v>
+        <v>0.774974358974359</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.7130566755558791</v>
+        <v>0.7692667866053018</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.6526920475614736</v>
+        <v>0.7235234483139189</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.7737435897435897</v>
+        <v>0.8420512820512821</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.7738175779879232</v>
+        <v>0.8418438188623224</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.7671473882642635</v>
+        <v>0.8363449911977719</v>
       </c>
     </row>
     <row r="15">
@@ -1729,58 +1729,58 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>0.784037558685446</v>
+        <v>0.8038601982263954</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7835670163741543</v>
+        <v>0.80272412328006</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7726721086526297</v>
+        <v>0.7920963327560075</v>
       </c>
       <c r="W15" t="n">
-        <v>0.7960354720918102</v>
+        <v>0.8137715179968702</v>
       </c>
       <c r="X15" t="n">
-        <v>0.7978265843056508</v>
+        <v>0.814056933686309</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.8050538446207641</v>
+        <v>0.8132961293475227</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.838810641627543</v>
+        <v>0.9061032863849765</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.8389940190214727</v>
+        <v>0.9067964179494722</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.8351010070937188</v>
+        <v>0.9063206228527386</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.7704615384615385</v>
+        <v>0.7669743589743589</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.7714716450301818</v>
+        <v>0.7670927724331262</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.768243239071059</v>
+        <v>0.7550861074885425</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.805128205128205</v>
+        <v>0.8756923076923077</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.806410851513745</v>
+        <v>0.8761337791086313</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.8075592018934795</v>
+        <v>0.8724989665950033</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.8447179487179487</v>
+        <v>0.9179487179487179</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.8440901400531331</v>
+        <v>0.9178175112429829</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.8360606917631995</v>
+        <v>0.9148393191123594</v>
       </c>
     </row>
   </sheetData>
